--- a/data/nuclear_power_plants.xlsx
+++ b/data/nuclear_power_plants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7d08b0af0deca8/Dokumente/GitHub/nuclear_reactors_europe/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7d08b0af0deca8/Dokumente/GitHub/nuclear_reactors_europe_line/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1075" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0E1B9E-DF87-4886-8E30-8108D5A205B3}"/>
+  <xr:revisionPtr revIDLastSave="1077" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B889056-1464-4DB3-8243-5F4CA5153D41}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6D55CEE1-0BC6-478D-8436-A8A9170D1D5B}"/>
+    <workbookView xWindow="38280" yWindow="2265" windowWidth="29040" windowHeight="15720" xr2:uid="{6D55CEE1-0BC6-478D-8436-A8A9170D1D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="236">
   <si>
     <t>Name</t>
   </si>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t>Nie in Betrieb genommen</t>
+  </si>
+  <si>
+    <t>Der Reaktor befindet sich noch nicht im kommerziellen Betrieb</t>
   </si>
 </sst>
 </file>
@@ -1182,9 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68F1D46-54BA-4BF9-89B2-AE08F7D0EB10}">
   <dimension ref="A1:N270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N168" sqref="N168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6267,7 +6270,7 @@
         <v>28178</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>227</v>
       </c>
@@ -6305,7 +6308,7 @@
         <v>39082</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>227</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>39813</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>227</v>
       </c>
@@ -6379,7 +6382,7 @@
       </c>
       <c r="L163" s="12"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>227</v>
       </c>
@@ -6415,7 +6418,7 @@
       </c>
       <c r="L164" s="12"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>227</v>
       </c>
@@ -6451,7 +6454,7 @@
       </c>
       <c r="L165" s="12"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>227</v>
       </c>
@@ -6487,7 +6490,7 @@
       </c>
       <c r="L166" s="12"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>227</v>
       </c>
@@ -6518,10 +6521,15 @@
       <c r="J167" s="12">
         <v>44957</v>
       </c>
-      <c r="K167" s="12"/>
+      <c r="K167" s="12">
+        <v>44957</v>
+      </c>
       <c r="L167" s="12"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N167" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>227</v>
       </c>
@@ -6553,7 +6561,7 @@
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>228</v>
       </c>
@@ -6587,7 +6595,7 @@
       </c>
       <c r="L169" s="12"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>229</v>
       </c>
@@ -6623,7 +6631,7 @@
       </c>
       <c r="L170" s="12"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>229</v>
       </c>
@@ -6659,7 +6667,7 @@
       </c>
       <c r="L171" s="12"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>229</v>
       </c>
@@ -6695,7 +6703,7 @@
       </c>
       <c r="L172" s="12"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>229</v>
       </c>
@@ -6731,7 +6739,7 @@
       </c>
       <c r="L173" s="12"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>229</v>
       </c>
@@ -6767,7 +6775,7 @@
       </c>
       <c r="L174" s="12"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>229</v>
       </c>
@@ -6805,7 +6813,7 @@
         <v>38837</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>229</v>
       </c>

--- a/data/nuclear_power_plants.xlsx
+++ b/data/nuclear_power_plants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7d08b0af0deca8/Dokumente/GitHub/nuclear_reactors_europe_line/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e7d08b0af0deca8/Dokumente/GitHub/nuclear_reactors_europe_bubble/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1077" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B889056-1464-4DB3-8243-5F4CA5153D41}"/>
+  <xr:revisionPtr revIDLastSave="1250" documentId="8_{4ECEEAE8-B898-4DCC-9308-3DC9137B897A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DDA4A29-CE2F-442F-98A7-B78176485082}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2265" windowWidth="29040" windowHeight="15720" xr2:uid="{6D55CEE1-0BC6-478D-8436-A8A9170D1D5B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D55CEE1-0BC6-478D-8436-A8A9170D1D5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="238">
   <si>
     <t>Name</t>
   </si>
@@ -638,9 +638,6 @@
     <t>Chinon</t>
   </si>
   <si>
-    <t>Chooz (Ardennes)</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -744,6 +741,15 @@
   </si>
   <si>
     <t>Der Reaktor befindet sich noch nicht im kommerziellen Betrieb</t>
+  </si>
+  <si>
+    <t>Ardennes</t>
+  </si>
+  <si>
+    <t>Chooz</t>
+  </si>
+  <si>
+    <t>geprüft</t>
   </si>
 </sst>
 </file>
@@ -1185,16 +1191,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68F1D46-54BA-4BF9-89B2-AE08F7D0EB10}">
   <dimension ref="A1:N270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N168" sqref="N168"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="31.109375" customWidth="1"/>
@@ -1239,16 +1245,16 @@
         <v>180</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1321,7 +1327,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1359,7 +1365,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>185</v>
@@ -1387,12 +1393,12 @@
         <v>28825</v>
       </c>
       <c r="N5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1464,7 +1470,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
@@ -1648,7 +1654,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -1800,7 +1806,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -1872,7 +1878,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>141</v>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>141</v>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>141</v>
@@ -1980,7 +1986,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>141</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>142</v>
@@ -2052,7 +2058,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>142</v>
@@ -2088,7 +2094,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>59</v>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
@@ -2160,7 +2166,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>61</v>
@@ -2196,7 +2202,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>61</v>
@@ -2232,7 +2238,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>61</v>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>65</v>
@@ -2297,7 +2303,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -2326,7 +2332,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>66</v>
@@ -2355,7 +2361,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>66</v>
@@ -2384,7 +2390,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
@@ -2413,7 +2419,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -2442,7 +2448,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -2471,7 +2477,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -2491,10 +2497,14 @@
       <c r="H37" s="9">
         <v>555</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="12"/>
+      <c r="I37" s="2">
+        <v>24077</v>
+      </c>
+      <c r="J37" s="12">
+        <v>26404</v>
+      </c>
       <c r="K37" s="12">
-        <v>26404</v>
+        <v>26481</v>
       </c>
       <c r="L37" s="12">
         <v>34481</v>
@@ -2502,7 +2512,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>68</v>
@@ -2522,16 +2532,20 @@
       <c r="H38" s="9">
         <v>945</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="12"/>
+      <c r="I38" s="2">
+        <v>26604</v>
+      </c>
+      <c r="J38" s="12">
+        <v>28620</v>
+      </c>
       <c r="K38" s="12">
-        <v>28620</v>
+        <v>28915</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>68</v>
@@ -2551,16 +2565,20 @@
       <c r="H39" s="9">
         <v>945</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="12"/>
+      <c r="I39" s="2">
+        <v>26908</v>
+      </c>
+      <c r="J39" s="12">
+        <v>28754</v>
+      </c>
       <c r="K39" s="12">
-        <v>28754</v>
+        <v>28915</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>68</v>
@@ -2580,16 +2598,20 @@
       <c r="H40" s="9">
         <v>917</v>
       </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="12"/>
+      <c r="I40" s="2">
+        <v>27181</v>
+      </c>
+      <c r="J40" s="12">
+        <v>28922</v>
+      </c>
       <c r="K40" s="12">
-        <v>28922</v>
+        <v>29037</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>68</v>
@@ -2609,16 +2631,20 @@
       <c r="H41" s="9">
         <v>917</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="12"/>
+      <c r="I41" s="2">
+        <v>27211</v>
+      </c>
+      <c r="J41" s="12">
+        <v>29067</v>
+      </c>
       <c r="K41" s="12">
-        <v>29067</v>
+        <v>29250</v>
       </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>70</v>
@@ -2638,16 +2664,20 @@
       <c r="H42" s="9">
         <v>1362</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="12"/>
+      <c r="I42" s="2">
+        <v>29157</v>
+      </c>
+      <c r="J42" s="12">
+        <v>31729</v>
+      </c>
       <c r="K42" s="12">
-        <v>31729</v>
+        <v>31868</v>
       </c>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>70</v>
@@ -2667,16 +2697,20 @@
       <c r="H43" s="9">
         <v>1362</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="12"/>
+      <c r="I43" s="2">
+        <v>29430</v>
+      </c>
+      <c r="J43" s="12">
+        <v>32037</v>
+      </c>
       <c r="K43" s="12">
-        <v>32037</v>
+        <v>32174</v>
       </c>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>70</v>
@@ -2696,16 +2730,20 @@
       <c r="H44" s="9">
         <v>1362</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="12"/>
+      <c r="I44" s="2">
+        <v>30117</v>
+      </c>
+      <c r="J44" s="12">
+        <v>33060</v>
+      </c>
       <c r="K44" s="12">
-        <v>33060</v>
+        <v>33270</v>
       </c>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>70</v>
@@ -2725,16 +2763,20 @@
       <c r="H45" s="9">
         <v>1362</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="12"/>
+      <c r="I45" s="2">
+        <v>30587</v>
+      </c>
+      <c r="J45" s="12">
+        <v>33385</v>
+      </c>
       <c r="K45" s="12">
-        <v>33385</v>
+        <v>33604</v>
       </c>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>199</v>
@@ -2754,10 +2796,14 @@
       <c r="H46" s="9">
         <v>80</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="12"/>
+      <c r="I46" s="2">
+        <v>20852</v>
+      </c>
+      <c r="J46" s="12">
+        <v>23176</v>
+      </c>
       <c r="K46" s="12">
-        <v>23176</v>
+        <v>23408</v>
       </c>
       <c r="L46" s="12">
         <v>26770</v>
@@ -2765,7 +2811,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>199</v>
@@ -2785,8 +2831,12 @@
       <c r="H47" s="9">
         <v>230</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="12"/>
+      <c r="I47" s="2">
+        <v>21763</v>
+      </c>
+      <c r="J47" s="12">
+        <v>23797</v>
+      </c>
       <c r="K47" s="12">
         <v>23797</v>
       </c>
@@ -2796,7 +2846,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>199</v>
@@ -2816,8 +2866,12 @@
       <c r="H48" s="9">
         <v>480</v>
       </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="12"/>
+      <c r="I48" s="2">
+        <v>22341</v>
+      </c>
+      <c r="J48" s="12">
+        <v>24323</v>
+      </c>
       <c r="K48" s="12">
         <v>24323</v>
       </c>
@@ -2827,7 +2881,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>199</v>
@@ -2847,16 +2901,20 @@
       <c r="H49" s="9">
         <v>954</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="12"/>
+      <c r="I49" s="2">
+        <v>28185</v>
+      </c>
+      <c r="J49" s="12">
+        <v>30285</v>
+      </c>
       <c r="K49" s="12">
-        <v>30285</v>
+        <v>30713</v>
       </c>
       <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>199</v>
@@ -2876,16 +2934,20 @@
       <c r="H50" s="9">
         <v>954</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="12"/>
+      <c r="I50" s="2">
+        <v>28185</v>
+      </c>
+      <c r="J50" s="12">
+        <v>30649</v>
+      </c>
       <c r="K50" s="12">
-        <v>30649</v>
+        <v>30895</v>
       </c>
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>199</v>
@@ -2905,16 +2967,20 @@
       <c r="H51" s="9">
         <v>954</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="12"/>
+      <c r="I51" s="2">
+        <v>29495</v>
+      </c>
+      <c r="J51" s="12">
+        <v>31705</v>
+      </c>
       <c r="K51" s="12">
-        <v>31705</v>
+        <v>31840</v>
       </c>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>199</v>
@@ -2934,22 +3000,26 @@
       <c r="H52" s="9">
         <v>954</v>
       </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="12"/>
+      <c r="I52" s="2">
+        <v>29618</v>
+      </c>
+      <c r="J52" s="12">
+        <v>32095</v>
+      </c>
       <c r="K52" s="12">
-        <v>32095</v>
+        <v>32234</v>
       </c>
       <c r="L52" s="13"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>22</v>
@@ -2958,13 +3028,17 @@
         <v>12</v>
       </c>
       <c r="G53" s="9">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H53" s="9">
         <v>320</v>
       </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="12"/>
+      <c r="I53" s="2">
+        <v>24473</v>
+      </c>
+      <c r="J53" s="12">
+        <v>24565</v>
+      </c>
       <c r="K53" s="12">
         <v>24565</v>
       </c>
@@ -2974,10 +3048,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>195</v>
@@ -2994,8 +3068,12 @@
       <c r="H54" s="9">
         <v>1560</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="12"/>
+      <c r="I54" s="2">
+        <v>35307</v>
+      </c>
+      <c r="J54" s="12">
+        <v>36661</v>
+      </c>
       <c r="K54" s="12">
         <v>35307</v>
       </c>
@@ -3003,10 +3081,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>196</v>
@@ -3023,8 +3101,12 @@
       <c r="H55" s="9">
         <v>1560</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="12"/>
+      <c r="I55" s="2">
+        <v>35530</v>
+      </c>
+      <c r="J55" s="12">
+        <v>36798</v>
+      </c>
       <c r="K55" s="12">
         <v>35530</v>
       </c>
@@ -3032,7 +3114,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>72</v>
@@ -3052,16 +3134,20 @@
       <c r="H56" s="9">
         <v>1561</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="12"/>
+      <c r="I56" s="2">
+        <v>32431</v>
+      </c>
+      <c r="J56" s="12">
+        <v>35788</v>
+      </c>
       <c r="K56" s="12">
-        <v>35788</v>
+        <v>37285</v>
       </c>
       <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>72</v>
@@ -3081,16 +3167,20 @@
       <c r="H57" s="9">
         <v>1561</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="12"/>
+      <c r="I57" s="2">
+        <v>33329</v>
+      </c>
+      <c r="J57" s="12">
+        <v>36518</v>
+      </c>
       <c r="K57" s="12">
-        <v>36518</v>
+        <v>37369</v>
       </c>
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>73</v>
@@ -3119,7 +3209,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>73</v>
@@ -3148,7 +3238,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>73</v>
@@ -3177,7 +3267,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>73</v>
@@ -3206,7 +3296,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>74</v>
@@ -3235,7 +3325,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>74</v>
@@ -3264,7 +3354,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>74</v>
@@ -3293,7 +3383,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>74</v>
@@ -3322,7 +3412,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>75</v>
@@ -3342,10 +3432,14 @@
       <c r="H66" s="9">
         <v>920</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="12"/>
+      <c r="I66" s="2">
+        <v>26177</v>
+      </c>
+      <c r="J66" s="12">
+        <v>28221</v>
+      </c>
       <c r="K66" s="12">
-        <v>28221</v>
+        <v>28491</v>
       </c>
       <c r="L66" s="2">
         <v>43881</v>
@@ -3353,7 +3447,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>75</v>
@@ -3373,18 +3467,22 @@
       <c r="H67" s="9">
         <v>920</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="12"/>
+      <c r="I67" s="2">
+        <v>26330</v>
+      </c>
+      <c r="J67" s="12">
+        <v>28405</v>
+      </c>
       <c r="K67" s="12">
-        <v>28405</v>
+        <v>28581</v>
       </c>
       <c r="L67" s="2">
-        <v>44012</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>76</v>
@@ -3404,16 +3502,20 @@
       <c r="H68" s="9">
         <v>1382</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="12"/>
+      <c r="I68" s="2">
+        <v>29190</v>
+      </c>
+      <c r="J68" s="12">
+        <v>31385</v>
+      </c>
       <c r="K68" s="12">
-        <v>31385</v>
+        <v>31747</v>
       </c>
       <c r="L68" s="13"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>76</v>
@@ -3433,16 +3535,20 @@
       <c r="H69" s="9">
         <v>1382</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="12"/>
+      <c r="I69" s="2">
+        <v>29342</v>
+      </c>
+      <c r="J69" s="12">
+        <v>31611</v>
+      </c>
       <c r="K69" s="12">
-        <v>31611</v>
+        <v>31845</v>
       </c>
       <c r="L69" s="13"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>76</v>
@@ -3471,7 +3577,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>78</v>
@@ -3491,8 +3597,12 @@
       <c r="H71" s="9">
         <v>1363</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="12"/>
+      <c r="I71" s="2">
+        <v>30272</v>
+      </c>
+      <c r="J71" s="12">
+        <v>33031</v>
+      </c>
       <c r="K71" s="12">
         <v>33031</v>
       </c>
@@ -3500,7 +3610,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>78</v>
@@ -3520,8 +3630,12 @@
       <c r="H72" s="9">
         <v>1363</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="12"/>
+      <c r="I72" s="2">
+        <v>30956</v>
+      </c>
+      <c r="J72" s="12">
+        <v>34397</v>
+      </c>
       <c r="K72" s="12">
         <v>34138</v>
       </c>
@@ -3529,7 +3643,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>79</v>
@@ -3558,7 +3672,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>79</v>
@@ -3587,7 +3701,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>79</v>
@@ -3616,7 +3730,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>79</v>
@@ -3645,7 +3759,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>79</v>
@@ -3674,7 +3788,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>79</v>
@@ -3703,13 +3817,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>69</v>
@@ -3731,13 +3845,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>69</v>
@@ -3763,13 +3877,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>69</v>
@@ -3795,7 +3909,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
@@ -3824,7 +3938,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>81</v>
@@ -3853,7 +3967,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>82</v>
@@ -3882,7 +3996,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>82</v>
@@ -3911,7 +4025,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>82</v>
@@ -3940,7 +4054,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>82</v>
@@ -3969,7 +4083,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>83</v>
@@ -3989,16 +4103,20 @@
       <c r="H88" s="9">
         <v>1382</v>
       </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="12"/>
+      <c r="I88" s="2">
+        <v>30195</v>
+      </c>
+      <c r="J88" s="12">
+        <v>32997</v>
+      </c>
       <c r="K88" s="12">
-        <v>32997</v>
+        <v>33208</v>
       </c>
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>83</v>
@@ -4018,16 +4136,20 @@
       <c r="H89" s="9">
         <v>1382</v>
       </c>
-      <c r="I89" s="2"/>
-      <c r="J89" s="12"/>
+      <c r="I89" s="2">
+        <v>30895</v>
+      </c>
+      <c r="J89" s="12">
+        <v>33638</v>
+      </c>
       <c r="K89" s="12">
-        <v>33638</v>
+        <v>33909</v>
       </c>
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>184</v>
@@ -4040,23 +4162,27 @@
         <v>12</v>
       </c>
       <c r="G90" s="9">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="H90" s="9">
-        <v>140</v>
-      </c>
-      <c r="I90" s="2"/>
-      <c r="J90" s="12"/>
+        <v>242</v>
+      </c>
+      <c r="I90" s="2">
+        <v>25143</v>
+      </c>
+      <c r="J90" s="12">
+        <v>27011</v>
+      </c>
       <c r="K90" s="12">
-        <v>27011</v>
+        <v>27224</v>
       </c>
       <c r="L90" s="12">
-        <v>39845</v>
+        <v>40210</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>84</v>
@@ -4085,7 +4211,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>84</v>
@@ -4114,10 +4240,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>71</v>
@@ -4134,10 +4260,14 @@
       <c r="H93" s="9">
         <v>500</v>
       </c>
-      <c r="I93" s="2"/>
-      <c r="J93" s="12"/>
+      <c r="I93" s="2">
+        <v>23285</v>
+      </c>
+      <c r="J93" s="12">
+        <v>25276</v>
+      </c>
       <c r="K93" s="12">
-        <v>25276</v>
+        <v>25355</v>
       </c>
       <c r="L93" s="12">
         <v>32981</v>
@@ -4145,10 +4275,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>193</v>
@@ -4165,10 +4295,14 @@
       <c r="H94" s="9">
         <v>530</v>
       </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="12"/>
+      <c r="I94" s="2">
+        <v>24108</v>
+      </c>
+      <c r="J94" s="12">
+        <v>26154</v>
+      </c>
       <c r="K94" s="12">
-        <v>26154</v>
+        <v>26238</v>
       </c>
       <c r="L94" s="12">
         <v>33751</v>
@@ -4176,10 +4310,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>195</v>
@@ -4196,19 +4330,23 @@
       <c r="H95" s="9">
         <v>956</v>
       </c>
-      <c r="I95" s="2"/>
-      <c r="J95" s="12"/>
+      <c r="I95" s="2">
+        <v>27881</v>
+      </c>
+      <c r="J95" s="12">
+        <v>29607</v>
+      </c>
       <c r="K95" s="12">
-        <v>29607</v>
+        <v>30529</v>
       </c>
       <c r="L95" s="13"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>196</v>
@@ -4225,16 +4363,20 @@
       <c r="H96" s="9">
         <v>956</v>
       </c>
-      <c r="I96" s="2"/>
-      <c r="J96" s="12"/>
+      <c r="I96" s="2">
+        <v>27942</v>
+      </c>
+      <c r="J96" s="12">
+        <v>29738</v>
+      </c>
       <c r="K96" s="12">
-        <v>29738</v>
+        <v>30529</v>
       </c>
       <c r="L96" s="13"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>85</v>
@@ -4252,10 +4394,14 @@
       <c r="H97" s="9">
         <v>1242</v>
       </c>
-      <c r="I97" s="2"/>
-      <c r="J97" s="12"/>
+      <c r="I97" s="2">
+        <v>28107</v>
+      </c>
+      <c r="J97" s="12">
+        <v>31427</v>
+      </c>
       <c r="K97" s="12">
-        <v>31426</v>
+        <v>31747</v>
       </c>
       <c r="L97" s="12">
         <v>36160</v>
@@ -4263,7 +4409,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>87</v>
@@ -4292,7 +4438,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>87</v>
@@ -4321,7 +4467,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>87</v>
@@ -4350,7 +4496,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>87</v>
@@ -4379,7 +4525,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>21</v>
@@ -4399,18 +4545,22 @@
       <c r="H102" s="9">
         <v>1225</v>
       </c>
-      <c r="I102" s="2"/>
-      <c r="J102" s="12"/>
+      <c r="I102" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J102" s="12">
+        <v>27266</v>
+      </c>
       <c r="K102" s="12">
-        <v>27266</v>
+        <v>27451</v>
       </c>
       <c r="L102" s="12">
-        <v>40761</v>
+        <v>40693</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>21</v>
@@ -4430,18 +4580,22 @@
       <c r="H103" s="9">
         <v>1300</v>
       </c>
-      <c r="I103" s="2"/>
-      <c r="J103" s="12"/>
+      <c r="I103" s="2">
+        <v>26330</v>
+      </c>
+      <c r="J103" s="12">
+        <v>27875</v>
+      </c>
       <c r="K103" s="12">
-        <v>27856</v>
+        <v>28156</v>
       </c>
       <c r="L103" s="12">
-        <v>40761</v>
+        <v>40693</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>24</v>
@@ -4470,7 +4624,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>25</v>
@@ -4499,7 +4653,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>27</v>
@@ -4528,7 +4682,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>28</v>
@@ -4557,7 +4711,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>29</v>
@@ -4588,7 +4742,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>29</v>
@@ -4619,7 +4773,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>29</v>
@@ -4650,7 +4804,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>29</v>
@@ -4681,7 +4835,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>29</v>
@@ -4712,7 +4866,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>32</v>
@@ -4741,7 +4895,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>33</v>
@@ -4770,7 +4924,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>35</v>
@@ -4790,10 +4944,14 @@
       <c r="H115" s="9">
         <v>250</v>
       </c>
-      <c r="I115" s="2"/>
-      <c r="J115" s="12"/>
+      <c r="I115" s="2">
+        <v>22992</v>
+      </c>
+      <c r="J115" s="12">
+        <v>24442</v>
+      </c>
       <c r="K115" s="12">
-        <v>24442</v>
+        <v>24574</v>
       </c>
       <c r="L115" s="12">
         <v>28138</v>
@@ -4801,7 +4959,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>35</v>
@@ -4821,10 +4979,14 @@
       <c r="H116" s="9">
         <v>1344</v>
       </c>
-      <c r="I116" s="2"/>
-      <c r="J116" s="12"/>
+      <c r="I116" s="2">
+        <v>27961</v>
+      </c>
+      <c r="J116" s="12">
+        <v>30757</v>
+      </c>
       <c r="K116" s="12">
-        <v>30757</v>
+        <v>30882</v>
       </c>
       <c r="L116" s="12">
         <v>43100</v>
@@ -4832,7 +4994,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>35</v>
@@ -4852,10 +5014,14 @@
       <c r="H117" s="9">
         <v>1344</v>
       </c>
-      <c r="I117" s="2"/>
-      <c r="J117" s="12"/>
+      <c r="I117" s="2">
+        <v>27961</v>
+      </c>
+      <c r="J117" s="12">
+        <v>30988</v>
+      </c>
       <c r="K117" s="12">
-        <v>30988</v>
+        <v>31065</v>
       </c>
       <c r="L117" s="12">
         <v>44561</v>
@@ -4863,7 +5029,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>36</v>
@@ -4892,7 +5058,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>38</v>
@@ -4923,7 +5089,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>38</v>
@@ -4954,7 +5120,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>39</v>
@@ -4983,7 +5149,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>40</v>
@@ -5012,7 +5178,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>41</v>
@@ -5041,7 +5207,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>43</v>
@@ -5070,7 +5236,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>44</v>
@@ -5099,7 +5265,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>45</v>
@@ -5128,7 +5294,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>46</v>
@@ -5157,7 +5323,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>47</v>
@@ -5188,7 +5354,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>47</v>
@@ -5219,14 +5385,14 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>12</v>
@@ -5248,7 +5414,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>50</v>
@@ -5277,7 +5443,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>51</v>
@@ -5308,7 +5474,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>51</v>
@@ -5339,7 +5505,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>52</v>
@@ -5368,7 +5534,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>54</v>
@@ -5397,7 +5563,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>55</v>
@@ -5409,7 +5575,7 @@
         <v>56</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G136" s="9">
         <v>900</v>
@@ -5428,7 +5594,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>55</v>
@@ -5440,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G137" s="9">
         <v>900</v>
@@ -5459,7 +5625,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>55</v>
@@ -5471,7 +5637,7 @@
         <v>56</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G138" s="9">
         <v>950</v>
@@ -5488,7 +5654,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>55</v>
@@ -5500,7 +5666,7 @@
         <v>56</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G139" s="9">
         <v>950</v>
@@ -5517,7 +5683,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>57</v>
@@ -5550,7 +5716,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>58</v>
@@ -5583,7 +5749,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>155</v>
@@ -5619,7 +5785,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>155</v>
@@ -5655,7 +5821,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>155</v>
@@ -5691,7 +5857,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>155</v>
@@ -5727,7 +5893,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>88</v>
@@ -5763,12 +5929,12 @@
         <v>33055</v>
       </c>
       <c r="N146" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>90</v>
@@ -5804,12 +5970,12 @@
         <v>33055</v>
       </c>
       <c r="N147" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>92</v>
@@ -5847,7 +6013,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>94</v>
@@ -5883,12 +6049,12 @@
         <v>32112</v>
       </c>
       <c r="N149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>97</v>
@@ -5926,7 +6092,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>97</v>
@@ -5964,7 +6130,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>100</v>
@@ -5998,7 +6164,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>102</v>
@@ -6034,7 +6200,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>186</v>
@@ -6049,7 +6215,7 @@
         <v>31</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G154" s="9">
         <v>440</v>
@@ -6066,7 +6232,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>186</v>
@@ -6081,7 +6247,7 @@
         <v>31</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G155" s="9">
         <v>440</v>
@@ -6098,7 +6264,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>186</v>
@@ -6113,7 +6279,7 @@
         <v>31</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G156" s="9">
         <v>440</v>
@@ -6130,7 +6296,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>186</v>
@@ -6145,7 +6311,7 @@
         <v>31</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G157" s="9">
         <v>440</v>
@@ -6162,7 +6328,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>104</v>
@@ -6198,7 +6364,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>104</v>
@@ -6234,7 +6400,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>124</v>
@@ -6272,7 +6438,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>124</v>
@@ -6310,7 +6476,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>124</v>
@@ -6348,7 +6514,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>124</v>
@@ -6384,7 +6550,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>124</v>
@@ -6420,7 +6586,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>128</v>
@@ -6456,7 +6622,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>128</v>
@@ -6492,7 +6658,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>128</v>
@@ -6526,12 +6692,12 @@
       </c>
       <c r="L167" s="12"/>
       <c r="N167" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>128</v>
@@ -6563,7 +6729,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>130</v>
@@ -6597,7 +6763,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>131</v>
@@ -6633,7 +6799,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>131</v>
@@ -6669,7 +6835,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>132</v>
@@ -6705,7 +6871,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>132</v>
@@ -6741,7 +6907,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>133</v>
@@ -6777,7 +6943,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>134</v>
@@ -6815,7 +6981,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>136</v>
@@ -6853,7 +7019,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>138</v>
@@ -6889,7 +7055,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>140</v>
@@ -6925,7 +7091,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>140</v>
@@ -6961,7 +7127,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>108</v>
@@ -6997,7 +7163,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>109</v>
@@ -7035,7 +7201,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>109</v>
@@ -7073,7 +7239,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>111</v>
@@ -7109,7 +7275,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>111</v>
@@ -7145,7 +7311,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>111</v>
@@ -7181,7 +7347,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>112</v>
@@ -7219,7 +7385,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>112</v>
@@ -7257,7 +7423,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>112</v>
@@ -7293,7 +7459,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>114</v>
@@ -7331,7 +7497,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>114</v>
@@ -7369,7 +7535,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>114</v>
@@ -7405,7 +7571,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>114</v>
@@ -7441,7 +7607,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>115</v>
@@ -7477,7 +7643,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>115</v>
@@ -7513,7 +7679,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>116</v>
@@ -7549,7 +7715,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>118</v>
@@ -7585,7 +7751,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>120</v>
@@ -7623,7 +7789,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>122</v>
@@ -7661,7 +7827,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>189</v>
@@ -7693,7 +7859,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>189</v>
@@ -7725,7 +7891,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>189</v>
@@ -7757,7 +7923,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>189</v>
@@ -7995,7 +8161,7 @@
       </c>
       <c r="L208" s="12"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>145</v>
       </c>
@@ -8031,7 +8197,7 @@
       </c>
       <c r="L209" s="12"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>145</v>
       </c>
@@ -8067,7 +8233,7 @@
       </c>
       <c r="L210" s="12"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>145</v>
       </c>
@@ -8103,7 +8269,7 @@
       </c>
       <c r="L211" s="12"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>145</v>
       </c>
@@ -8139,7 +8305,7 @@
       </c>
       <c r="L212" s="12"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>145</v>
       </c>
@@ -8175,7 +8341,7 @@
       </c>
       <c r="L213" s="12"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>145</v>
       </c>
@@ -8211,7 +8377,7 @@
       </c>
       <c r="L214" s="12"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>145</v>
       </c>
@@ -8247,7 +8413,7 @@
       </c>
       <c r="L215" s="12"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>145</v>
       </c>
@@ -8283,7 +8449,7 @@
       </c>
       <c r="L216" s="12"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>145</v>
       </c>
@@ -8319,7 +8485,7 @@
       </c>
       <c r="L217" s="12"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>145</v>
       </c>
@@ -8355,7 +8521,7 @@
       </c>
       <c r="L218" s="12"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>145</v>
       </c>
@@ -8391,7 +8557,7 @@
       </c>
       <c r="L219" s="12"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>145</v>
       </c>
@@ -8429,7 +8595,7 @@
         <v>35399</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>145</v>
       </c>
@@ -8467,7 +8633,7 @@
         <v>33522</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>145</v>
       </c>
@@ -8505,7 +8671,7 @@
         <v>36875</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>145</v>
       </c>
@@ -8543,9 +8709,9 @@
         <v>31528</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>156</v>
@@ -8580,10 +8746,13 @@
       <c r="L224" s="12">
         <v>32598</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N224" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>156</v>
@@ -8618,10 +8787,13 @@
       <c r="L225" s="12">
         <v>32442</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N225" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>157</v>
@@ -8656,10 +8828,13 @@
       <c r="L226" s="12">
         <v>37346</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N226" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>157</v>
@@ -8694,10 +8869,13 @@
       <c r="L227" s="12">
         <v>37345</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N227" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>158</v>
@@ -8732,10 +8910,13 @@
       <c r="L228" s="12">
         <v>37711</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N228" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>158</v>
@@ -8770,10 +8951,13 @@
       <c r="L229" s="12">
         <v>37711</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N229" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>158</v>
@@ -8808,10 +8992,13 @@
       <c r="L230" s="12">
         <v>37711</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N230" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>158</v>
@@ -8846,10 +9033,13 @@
       <c r="L231" s="12">
         <v>37711</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>159</v>
@@ -8884,10 +9074,13 @@
       <c r="L232" s="12">
         <v>38167</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N232" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>159</v>
@@ -8922,10 +9115,13 @@
       <c r="L233" s="12">
         <v>38167</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>159</v>
@@ -8960,10 +9156,13 @@
       <c r="L234" s="12">
         <v>38167</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>159</v>
@@ -8998,10 +9197,13 @@
       <c r="L235" s="12">
         <v>38167</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>160</v>
@@ -9034,10 +9236,13 @@
       <c r="L236" s="12">
         <v>28185</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>160</v>
@@ -9070,10 +9275,13 @@
       <c r="L237" s="12">
         <v>34424</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>164</v>
@@ -9108,10 +9316,13 @@
       <c r="L238" s="12">
         <v>39082</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>164</v>
@@ -9146,10 +9357,13 @@
       <c r="L239" s="12">
         <v>39082</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N239" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>164</v>
@@ -9167,7 +9381,7 @@
         <v>12</v>
       </c>
       <c r="G240" s="9">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="H240" s="9">
         <v>615</v>
@@ -9182,12 +9396,15 @@
         <v>31138</v>
       </c>
       <c r="L240" s="12">
-        <v>44354</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44355</v>
+      </c>
+      <c r="N240" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>164</v>
@@ -9205,7 +9422,7 @@
         <v>12</v>
       </c>
       <c r="G241" s="9">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="H241" s="9">
         <v>615</v>
@@ -9220,12 +9437,15 @@
         <v>32599</v>
       </c>
       <c r="L241" s="12">
-        <v>44354</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44355</v>
+      </c>
+      <c r="N241" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>166</v>
@@ -9243,7 +9463,7 @@
         <v>7</v>
       </c>
       <c r="G242" s="9">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H242" s="9">
         <v>655</v>
@@ -9258,10 +9478,13 @@
         <v>32599</v>
       </c>
       <c r="L242" s="12"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N242" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>166</v>
@@ -9294,10 +9517,13 @@
         <v>32599</v>
       </c>
       <c r="L243" s="12"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N243" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>167</v>
@@ -9315,7 +9541,7 @@
         <v>7</v>
       </c>
       <c r="G244" s="9">
-        <v>485</v>
+        <v>585</v>
       </c>
       <c r="H244" s="9">
         <v>625</v>
@@ -9330,10 +9556,13 @@
         <v>32599</v>
       </c>
       <c r="L244" s="12"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N244" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>167</v>
@@ -9366,10 +9595,13 @@
         <v>32599</v>
       </c>
       <c r="L245" s="12"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N245" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>167</v>
@@ -9402,10 +9634,13 @@
         <v>32599</v>
       </c>
       <c r="L246" s="12"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N246" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>167</v>
@@ -9438,10 +9673,13 @@
         <v>32599</v>
       </c>
       <c r="L247" s="12"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N247" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>168</v>
@@ -9476,10 +9714,13 @@
       <c r="L248" s="12">
         <v>36669</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>168</v>
@@ -9514,10 +9755,13 @@
       <c r="L249" s="12">
         <v>36669</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N249" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>168</v>
@@ -9535,7 +9779,7 @@
         <v>12</v>
       </c>
       <c r="G250" s="9">
-        <v>485</v>
+        <v>410</v>
       </c>
       <c r="H250" s="9">
         <v>655</v>
@@ -9552,10 +9796,13 @@
       <c r="L250" s="12">
         <v>44774</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N250" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>168</v>
@@ -9573,7 +9820,7 @@
         <v>12</v>
       </c>
       <c r="G251" s="9">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="H251" s="9">
         <v>655</v>
@@ -9590,16 +9837,19 @@
       <c r="L251" s="12">
         <v>44748</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N251" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D252" t="s">
         <v>5</v>
@@ -9611,7 +9861,7 @@
         <v>129</v>
       </c>
       <c r="G252" s="9">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="H252" s="9">
         <v>1720</v>
@@ -9622,16 +9872,19 @@
       <c r="J252" s="12"/>
       <c r="K252" s="12"/>
       <c r="L252" s="12"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N252" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>5</v>
@@ -9643,7 +9896,7 @@
         <v>129</v>
       </c>
       <c r="G253" s="9">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="H253" s="9">
         <v>1720</v>
@@ -9654,10 +9907,13 @@
       <c r="J253" s="12"/>
       <c r="K253" s="12"/>
       <c r="L253" s="12"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N253" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>170</v>
@@ -9692,10 +9948,13 @@
       <c r="L254" s="12">
         <v>32962</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N254" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>170</v>
@@ -9730,10 +9989,13 @@
       <c r="L255" s="12">
         <v>32873</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N255" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>170</v>
@@ -9751,7 +10013,7 @@
         <v>12</v>
       </c>
       <c r="G256" s="9">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="H256" s="9">
         <v>644</v>
@@ -9763,15 +10025,18 @@
         <v>27796</v>
       </c>
       <c r="K256" s="12">
-        <v>27797</v>
+        <v>27796</v>
       </c>
       <c r="L256" s="12">
         <v>44526</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N256" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>170</v>
@@ -9789,7 +10054,7 @@
         <v>12</v>
       </c>
       <c r="G257" s="9">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="H257" s="9">
         <v>644</v>
@@ -9801,15 +10066,18 @@
         <v>28215</v>
       </c>
       <c r="K257" s="12">
-        <v>28216</v>
+        <v>28215</v>
       </c>
       <c r="L257" s="12">
         <v>44568</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N257" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>171</v>
@@ -9844,10 +10112,13 @@
       <c r="L258" s="12">
         <v>40968</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N258" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>171</v>
@@ -9882,10 +10153,13 @@
       <c r="L259" s="12">
         <v>40724</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N259" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>172</v>
@@ -9920,10 +10194,13 @@
       <c r="L260" s="12">
         <v>39082</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N260" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>172</v>
@@ -9958,10 +10235,13 @@
       <c r="L261" s="12">
         <v>39082</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N261" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>172</v>
@@ -9994,10 +10274,13 @@
         <v>34964</v>
       </c>
       <c r="L262" s="12"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N262" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>174</v>
@@ -10030,10 +10313,13 @@
         <v>32288</v>
       </c>
       <c r="L263" s="12"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N263" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>174</v>
@@ -10066,10 +10352,13 @@
         <v>32542</v>
       </c>
       <c r="L264" s="12"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N264" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>175</v>
@@ -10104,10 +10393,13 @@
       <c r="L265" s="12">
         <v>33275</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N265" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>175</v>
@@ -10142,10 +10434,13 @@
       <c r="L266" s="12">
         <v>33273</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N266" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>176</v>
@@ -10179,9 +10474,9 @@
         <v>29679</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>177</v>
@@ -10212,10 +10507,13 @@
       <c r="L268" s="12">
         <v>33127</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N268" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>179</v>
@@ -10236,7 +10534,7 @@
         <v>490</v>
       </c>
       <c r="H269" s="9">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="I269" s="12">
         <v>23255</v>
@@ -10250,10 +10548,13 @@
       <c r="L269" s="12">
         <v>42368</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N269" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>179</v>
@@ -10287,6 +10588,9 @@
       </c>
       <c r="L270" s="12">
         <v>41024</v>
+      </c>
+      <c r="N270" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
